--- a/biology/Histoire de la zoologie et de la botanique/Leonhard_Hess_Stejneger/Leonhard_Hess_Stejneger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leonhard_Hess_Stejneger/Leonhard_Hess_Stejneger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonhard Hess Stejneger est un zoologiste américain d'origine norvégienne, né le 30 octobre 1851 à Bergen en Norvège et mort le 28 février 1943.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stejneger fait des études de droit et de philosophie à l'université de Christiania à Copenhague. Il obtient son doctorat et commence une brève carrière de juriste. Mais son intérêt pour l'histoire naturelle est le plus fort et il part aux États-Unis en 1881 et commence à travailler à la Smithsonian Institution sous la direction de Spencer Fullerton Baird (1823-1887).
 Il participe à de nombreuses expéditions dans le nord du continent nord-américain. De 1882 à 1883, il part en mission dans l'île Béring et au Kamtchatka. En 1895, il se rend dans les îles Komandorski, pour y étudier les otaries pour U.S. Fish Commission (le ministère américain de la pêche). Cette étude sera suivie d'une seconde en 1922.
@@ -546,7 +560,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (13253) Stejneger porte son nom.
 </t>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Leonhard Hess Stejneger » (voir la liste des auteurs) (version du 17 janvier 2005).</t>
         </is>
